--- a/archivos/RLlenadoMantenimineto.xlsx
+++ b/archivos/RLlenadoMantenimineto.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4276580-9C3A-41F2-8812-90AE9B769885}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E55A66-EF13-47EC-980E-230C16F31650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Trazabilidad de Barriles y Rones Envejecidos</t>
-  </si>
-  <si>
-    <t>Reporte Diario de Reparación de barriles</t>
   </si>
   <si>
     <t>Fecha:</t>
@@ -45,17 +42,17 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Etiqueta</t>
+    <t>Reporte de reparación de barriles</t>
   </si>
   <si>
-    <t>Operador</t>
+    <t>Total general</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -86,6 +83,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -101,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,11 +126,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -122,21 +163,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -144,13 +196,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -243,13 +301,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>637710</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
@@ -265,13 +323,20 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19080" y="0"/>
-          <a:ext cx="2765520" cy="804600"/>
+          <a:off x="38101" y="0"/>
+          <a:ext cx="2867024" cy="804825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -583,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J1010"/>
+  <dimension ref="A1:N1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,230 +659,352 @@
     <col min="1" max="1" width="1.28515625" customWidth="1"/>
     <col min="2" max="2" width="0.7109375" customWidth="1"/>
     <col min="3" max="3" width="1.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.85546875" customWidth="1"/>
-    <col min="10" max="10" width="4" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="14" t="s">
+    <row r="1" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="2:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="8" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="9"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="F8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+      <c r="F9" s="21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E9" s="16" t="s">
+      <c r="G9" s="21"/>
+      <c r="H9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="9" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" s="4"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="6"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="4"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13" s="4"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="4"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D15" s="4"/>
-      <c r="E15" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -6692,16 +6879,58 @@
       <c r="G1010" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
+  <mergeCells count="51">
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B6:I6"/>
-    <mergeCell ref="F1:J4"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="H1:N4"/>
+    <mergeCell ref="A1:G4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
